--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3058198C-94A6-42E1-A1DD-E2442B76329F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8603625E-8497-4035-A5FE-7818E93D9AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
